--- a/exam hall try1/2ND YEAR.xlsx
+++ b/exam hall try1/2ND YEAR.xlsx
@@ -1,26 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\exam hall\exam hall try1\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{904B039C-97D4-415B-956C-019763154A55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7CCFFA71-9309-4DE0-982E-5DCC80393885}"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -33,14 +22,21 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -51,7 +47,14 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -63,20 +66,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="4">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -87,10 +96,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -117,116 +126,82 @@
         <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -238,1202 +213,1228 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:tint val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:tint val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="9500"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot rev="0" lon="0" lat="0"/>
+            </a:camera>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:tint val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01ED1051-089E-4C32-A8B5-98FADCE62913}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
   <dimension ref="A1:A210"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+      <c r="A2" s="2">
         <v>22000</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+      <c r="A3" s="2">
         <v>22001</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+      <c r="A4" s="2">
         <v>22002</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+      <c r="A5" s="2">
         <v>22003</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+      <c r="A6" s="2">
         <v>22004</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+      <c r="A7" s="2">
         <v>22005</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+      <c r="A8" s="2">
         <v>22006</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+      <c r="A9" s="2">
         <v>22007</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+      <c r="A10" s="2">
         <v>22008</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+      <c r="A11" s="2">
         <v>22009</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+      <c r="A12" s="2">
         <v>22010</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+      <c r="A13" s="2">
         <v>22011</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+      <c r="A14" s="2">
         <v>22012</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+      <c r="A15" s="2">
         <v>22013</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+      <c r="A16" s="2">
         <v>22014</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+      <c r="A17" s="2">
         <v>22015</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+      <c r="A18" s="2">
         <v>22016</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+      <c r="A19" s="2">
         <v>22017</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+      <c r="A20" s="2">
         <v>22018</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+      <c r="A21" s="2">
         <v>22019</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+      <c r="A22" s="2">
         <v>22020</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+      <c r="A23" s="2">
         <v>22021</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+      <c r="A24" s="2">
         <v>22022</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+      <c r="A25" s="2">
         <v>22023</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+      <c r="A26" s="2">
         <v>22024</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+      <c r="A27" s="2">
         <v>22025</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
+      <c r="A28" s="2">
         <v>22026</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
+      <c r="A29" s="2">
         <v>22027</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
+      <c r="A30" s="2">
         <v>22028</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31">
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
+      <c r="A31" s="2">
         <v>22029</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32">
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
+      <c r="A32" s="2">
         <v>22030</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33">
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
+      <c r="A33" s="2">
         <v>22031</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34">
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
+      <c r="A34" s="2">
         <v>22032</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35">
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
+      <c r="A35" s="2">
         <v>22033</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36">
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
+      <c r="A36" s="2">
         <v>22034</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37">
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
+      <c r="A37" s="2">
         <v>22035</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38">
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
+      <c r="A38" s="2">
         <v>22036</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39">
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
+      <c r="A39" s="2">
         <v>22037</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40">
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
+      <c r="A40" s="2">
         <v>22038</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A41">
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
+      <c r="A41" s="2">
         <v>22039</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A42">
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
+      <c r="A42" s="2">
         <v>22040</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A43">
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
+      <c r="A43" s="2">
         <v>22041</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A44">
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
+      <c r="A44" s="2">
         <v>22042</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A45">
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
+      <c r="A45" s="2">
         <v>22043</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A46">
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
+      <c r="A46" s="2">
         <v>22044</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A47">
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
+      <c r="A47" s="2">
         <v>22045</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A48">
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
+      <c r="A48" s="2">
         <v>22046</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A49">
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
+      <c r="A49" s="2">
         <v>22047</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A50">
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
+      <c r="A50" s="2">
         <v>22048</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A51">
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
+      <c r="A51" s="2">
         <v>22049</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A52">
+    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
+      <c r="A52" s="2">
         <v>22050</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A53">
+    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
+      <c r="A53" s="2">
         <v>22051</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A54">
+    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
+      <c r="A54" s="2">
         <v>22052</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A55">
+    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
+      <c r="A55" s="2">
         <v>22053</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A56">
+    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
+      <c r="A56" s="2">
         <v>22054</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A57">
+    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
+      <c r="A57" s="2">
         <v>22055</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A58">
+    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
+      <c r="A58" s="2">
         <v>22056</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A59">
+    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75">
+      <c r="A59" s="2">
         <v>22057</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A60">
+    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75">
+      <c r="A60" s="2">
         <v>22058</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A61">
+    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75">
+      <c r="A61" s="2">
         <v>22059</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A62">
+    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75">
+      <c r="A62" s="2">
         <v>22060</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A63">
+    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75">
+      <c r="A63" s="2">
         <v>22061</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A64">
+    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75">
+      <c r="A64" s="2">
         <v>22062</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A65">
+    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75">
+      <c r="A65" s="2">
         <v>22063</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A66">
+    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75">
+      <c r="A66" s="2">
         <v>22064</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A67">
+    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75">
+      <c r="A67" s="2">
         <v>22065</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A68">
+    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75">
+      <c r="A68" s="2">
         <v>22066</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A69">
+    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75">
+      <c r="A69" s="2">
         <v>22067</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A70">
+    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75">
+      <c r="A70" s="2">
         <v>22068</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A71">
+    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75">
+      <c r="A71" s="2">
         <v>22069</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A72">
+    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75">
+      <c r="A72" s="2">
         <v>22070</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A73">
+    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75">
+      <c r="A73" s="2">
         <v>22071</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A74">
+    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75">
+      <c r="A74" s="2">
         <v>22072</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A75">
+    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75">
+      <c r="A75" s="2">
         <v>22073</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A76">
+    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18.75">
+      <c r="A76" s="2">
         <v>22074</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A77">
+    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75">
+      <c r="A77" s="2">
         <v>22075</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A78">
+    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75">
+      <c r="A78" s="2">
         <v>22076</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A79">
+    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18.75">
+      <c r="A79" s="2">
         <v>22077</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A80">
+    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18.75">
+      <c r="A80" s="2">
         <v>22078</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A81">
+    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18.75">
+      <c r="A81" s="2">
         <v>22079</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A82">
+    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18.75">
+      <c r="A82" s="2">
         <v>22080</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A83">
+    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18.75">
+      <c r="A83" s="2">
         <v>22081</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A84">
+    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18.75">
+      <c r="A84" s="2">
         <v>22082</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A85">
+    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18.75">
+      <c r="A85" s="2">
         <v>22083</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A86">
+    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="18.75">
+      <c r="A86" s="2">
         <v>22084</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A87">
+    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="18.75">
+      <c r="A87" s="2">
         <v>22085</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A88">
+    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="18.75">
+      <c r="A88" s="2">
         <v>22086</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A89">
+    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="18.75">
+      <c r="A89" s="2">
         <v>22087</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A90">
+    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="18.75">
+      <c r="A90" s="2">
         <v>22088</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A91">
+    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="18.75">
+      <c r="A91" s="2">
         <v>22089</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A92">
+    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="18.75">
+      <c r="A92" s="2">
         <v>22090</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A93">
+    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="18.75">
+      <c r="A93" s="2">
         <v>22091</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A94">
+    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="18.75">
+      <c r="A94" s="2">
         <v>22092</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A95">
+    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="18.75">
+      <c r="A95" s="2">
         <v>22093</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A96">
+    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="18.75">
+      <c r="A96" s="2">
         <v>22094</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A97">
+    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="18.75">
+      <c r="A97" s="2">
         <v>22095</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A98">
+    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="18.75">
+      <c r="A98" s="2">
         <v>22096</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A99">
+    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="18.75">
+      <c r="A99" s="2">
         <v>22097</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A100">
+    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="18.75">
+      <c r="A100" s="2">
         <v>22098</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A101">
+    <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="18.75">
+      <c r="A101" s="2">
         <v>22099</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A102">
+    <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="18.75">
+      <c r="A102" s="2">
         <v>22100</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A103">
+    <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="18.75">
+      <c r="A103" s="2">
         <v>22101</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A104">
+    <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="18.75">
+      <c r="A104" s="2">
         <v>22102</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A105">
+    <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="18.75">
+      <c r="A105" s="2">
         <v>22103</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A106">
+    <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="18.75">
+      <c r="A106" s="2">
         <v>22104</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A107">
+    <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="18.75">
+      <c r="A107" s="2">
         <v>22105</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A108">
+    <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="18.75">
+      <c r="A108" s="2">
         <v>22106</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A109">
+    <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="18.75">
+      <c r="A109" s="2">
         <v>22107</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A110">
+    <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="18.75">
+      <c r="A110" s="2">
         <v>22108</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A111">
+    <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="18.75">
+      <c r="A111" s="2">
         <v>22109</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A112">
+    <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="18.75">
+      <c r="A112" s="2">
         <v>22110</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A113">
+    <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="18.75">
+      <c r="A113" s="2">
         <v>22111</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A114">
+    <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="18.75">
+      <c r="A114" s="2">
         <v>22112</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A115">
+    <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="18.75">
+      <c r="A115" s="2">
         <v>22113</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A116">
+    <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="18.75">
+      <c r="A116" s="2">
         <v>22114</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A117">
+    <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="18.75">
+      <c r="A117" s="2">
         <v>22115</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A118">
+    <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="18.75">
+      <c r="A118" s="2">
         <v>22116</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A119">
+    <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="18.75">
+      <c r="A119" s="2">
         <v>22117</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A120">
+    <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="18.75">
+      <c r="A120" s="2">
         <v>22118</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A121">
+    <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="18.75">
+      <c r="A121" s="2">
         <v>22119</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A122">
+    <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="18.75">
+      <c r="A122" s="2">
         <v>22120</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A123">
+    <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="18.75">
+      <c r="A123" s="2">
         <v>22121</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A124">
+    <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="18.75">
+      <c r="A124" s="2">
         <v>22122</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A125">
+    <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="18.75">
+      <c r="A125" s="2">
         <v>22123</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A126">
+    <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="18.75">
+      <c r="A126" s="2">
         <v>22124</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A127">
+    <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="18.75">
+      <c r="A127" s="2">
         <v>22125</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A128">
+    <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="18.75">
+      <c r="A128" s="2">
         <v>22126</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A129">
+    <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="18.75">
+      <c r="A129" s="2">
         <v>22127</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A130">
+    <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="18.75">
+      <c r="A130" s="2">
         <v>22128</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A131">
+    <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="18.75">
+      <c r="A131" s="2">
         <v>22129</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A132">
+    <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="18.75">
+      <c r="A132" s="2">
         <v>22130</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A133">
+    <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="18.75">
+      <c r="A133" s="2">
         <v>22131</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A134">
+    <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="18.75">
+      <c r="A134" s="2">
         <v>22132</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A135">
+    <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="18.75">
+      <c r="A135" s="2">
         <v>22133</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A136">
+    <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="18.75">
+      <c r="A136" s="2">
         <v>22134</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A137">
+    <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="18.75">
+      <c r="A137" s="2">
         <v>22135</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A138">
+    <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="18.75">
+      <c r="A138" s="2">
         <v>22136</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A139">
+    <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="18.75">
+      <c r="A139" s="2">
         <v>22137</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A140">
+    <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="18.75">
+      <c r="A140" s="2">
         <v>22138</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A141">
+    <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="18.75">
+      <c r="A141" s="2">
         <v>22139</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A142">
+    <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="18.75">
+      <c r="A142" s="2">
         <v>22140</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A143">
+    <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="18.75">
+      <c r="A143" s="2">
         <v>22141</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A144">
+    <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="18.75">
+      <c r="A144" s="2">
         <v>22142</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A145">
+    <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="18.75">
+      <c r="A145" s="2">
         <v>22143</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A146">
+    <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="18.75">
+      <c r="A146" s="2">
         <v>22144</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A147">
+    <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="18.75">
+      <c r="A147" s="2">
         <v>22145</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A148">
+    <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="18.75">
+      <c r="A148" s="2">
         <v>22146</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A149">
+    <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="18.75">
+      <c r="A149" s="2">
         <v>22147</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A150">
+    <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="18.75">
+      <c r="A150" s="2">
         <v>22148</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A151">
+    <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="18.75">
+      <c r="A151" s="2">
         <v>22149</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A152">
+    <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="18.75">
+      <c r="A152" s="2">
         <v>22150</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A153">
+    <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="18.75">
+      <c r="A153" s="2">
         <v>22151</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A154">
+    <row x14ac:dyDescent="0.25" r="154" customHeight="1" ht="18.75">
+      <c r="A154" s="2">
         <v>22152</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A155">
+    <row x14ac:dyDescent="0.25" r="155" customHeight="1" ht="18.75">
+      <c r="A155" s="2">
         <v>22153</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A156">
+    <row x14ac:dyDescent="0.25" r="156" customHeight="1" ht="18.75">
+      <c r="A156" s="2">
         <v>22154</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A157">
+    <row x14ac:dyDescent="0.25" r="157" customHeight="1" ht="18.75">
+      <c r="A157" s="2">
         <v>22155</v>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A158">
+    <row x14ac:dyDescent="0.25" r="158" customHeight="1" ht="18.75">
+      <c r="A158" s="2">
         <v>22156</v>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A159">
+    <row x14ac:dyDescent="0.25" r="159" customHeight="1" ht="18.75">
+      <c r="A159" s="2">
         <v>22157</v>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A160">
+    <row x14ac:dyDescent="0.25" r="160" customHeight="1" ht="18.75">
+      <c r="A160" s="2">
         <v>22158</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A161">
+    <row x14ac:dyDescent="0.25" r="161" customHeight="1" ht="18.75">
+      <c r="A161" s="2">
         <v>22159</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A162">
+    <row x14ac:dyDescent="0.25" r="162" customHeight="1" ht="18.75">
+      <c r="A162" s="2">
         <v>22160</v>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A163">
+    <row x14ac:dyDescent="0.25" r="163" customHeight="1" ht="18.75">
+      <c r="A163" s="2">
         <v>22161</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A164">
+    <row x14ac:dyDescent="0.25" r="164" customHeight="1" ht="18.75">
+      <c r="A164" s="2">
         <v>22162</v>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A165">
+    <row x14ac:dyDescent="0.25" r="165" customHeight="1" ht="18.75">
+      <c r="A165" s="2">
         <v>22163</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A166">
+    <row x14ac:dyDescent="0.25" r="166" customHeight="1" ht="18.75">
+      <c r="A166" s="2">
         <v>22164</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A167">
+    <row x14ac:dyDescent="0.25" r="167" customHeight="1" ht="18.75">
+      <c r="A167" s="2">
         <v>22165</v>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A168">
+    <row x14ac:dyDescent="0.25" r="168" customHeight="1" ht="18.75">
+      <c r="A168" s="2">
         <v>22166</v>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A169">
+    <row x14ac:dyDescent="0.25" r="169" customHeight="1" ht="18.75">
+      <c r="A169" s="2">
         <v>22167</v>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A170">
+    <row x14ac:dyDescent="0.25" r="170" customHeight="1" ht="18.75">
+      <c r="A170" s="2">
         <v>22168</v>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A171">
+    <row x14ac:dyDescent="0.25" r="171" customHeight="1" ht="18.75">
+      <c r="A171" s="2">
         <v>22169</v>
       </c>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A172">
+    <row x14ac:dyDescent="0.25" r="172" customHeight="1" ht="18.75">
+      <c r="A172" s="2">
         <v>22170</v>
       </c>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A173">
+    <row x14ac:dyDescent="0.25" r="173" customHeight="1" ht="18.75">
+      <c r="A173" s="2">
         <v>22171</v>
       </c>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A174">
+    <row x14ac:dyDescent="0.25" r="174" customHeight="1" ht="18.75">
+      <c r="A174" s="2">
         <v>22172</v>
       </c>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A175">
+    <row x14ac:dyDescent="0.25" r="175" customHeight="1" ht="18.75">
+      <c r="A175" s="2">
         <v>22173</v>
       </c>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A176">
+    <row x14ac:dyDescent="0.25" r="176" customHeight="1" ht="18.75">
+      <c r="A176" s="2">
         <v>22174</v>
       </c>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A177">
+    <row x14ac:dyDescent="0.25" r="177" customHeight="1" ht="18.75">
+      <c r="A177" s="2">
         <v>22175</v>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A178">
+    <row x14ac:dyDescent="0.25" r="178" customHeight="1" ht="18.75">
+      <c r="A178" s="2">
         <v>22176</v>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A179">
+    <row x14ac:dyDescent="0.25" r="179" customHeight="1" ht="18.75">
+      <c r="A179" s="2">
         <v>22177</v>
       </c>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A180">
+    <row x14ac:dyDescent="0.25" r="180" customHeight="1" ht="18.75">
+      <c r="A180" s="2">
         <v>22178</v>
       </c>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A181">
+    <row x14ac:dyDescent="0.25" r="181" customHeight="1" ht="18.75">
+      <c r="A181" s="2">
         <v>22179</v>
       </c>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A182">
+    <row x14ac:dyDescent="0.25" r="182" customHeight="1" ht="18.75">
+      <c r="A182" s="2">
         <v>22180</v>
       </c>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A183">
+    <row x14ac:dyDescent="0.25" r="183" customHeight="1" ht="18.75">
+      <c r="A183" s="2">
         <v>22181</v>
       </c>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A184">
+    <row x14ac:dyDescent="0.25" r="184" customHeight="1" ht="18.75">
+      <c r="A184" s="2">
         <v>22182</v>
       </c>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A185">
+    <row x14ac:dyDescent="0.25" r="185" customHeight="1" ht="18.75">
+      <c r="A185" s="2">
         <v>22183</v>
       </c>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A186">
+    <row x14ac:dyDescent="0.25" r="186" customHeight="1" ht="18.75">
+      <c r="A186" s="2">
         <v>22184</v>
       </c>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A187">
+    <row x14ac:dyDescent="0.25" r="187" customHeight="1" ht="18.75">
+      <c r="A187" s="2">
         <v>22185</v>
       </c>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A188">
+    <row x14ac:dyDescent="0.25" r="188" customHeight="1" ht="18.75">
+      <c r="A188" s="2">
         <v>22186</v>
       </c>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A189">
+    <row x14ac:dyDescent="0.25" r="189" customHeight="1" ht="18.75">
+      <c r="A189" s="2">
         <v>22187</v>
       </c>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A190">
+    <row x14ac:dyDescent="0.25" r="190" customHeight="1" ht="18.75">
+      <c r="A190" s="2">
         <v>22188</v>
       </c>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A191">
+    <row x14ac:dyDescent="0.25" r="191" customHeight="1" ht="18.75">
+      <c r="A191" s="2">
         <v>22189</v>
       </c>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A192">
+    <row x14ac:dyDescent="0.25" r="192" customHeight="1" ht="18.75">
+      <c r="A192" s="2">
         <v>22190</v>
       </c>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A193">
+    <row x14ac:dyDescent="0.25" r="193" customHeight="1" ht="18.75">
+      <c r="A193" s="2">
         <v>22191</v>
       </c>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A194">
+    <row x14ac:dyDescent="0.25" r="194" customHeight="1" ht="18.75">
+      <c r="A194" s="2">
         <v>22192</v>
       </c>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A195">
+    <row x14ac:dyDescent="0.25" r="195" customHeight="1" ht="18.75">
+      <c r="A195" s="2">
         <v>22193</v>
       </c>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A196">
+    <row x14ac:dyDescent="0.25" r="196" customHeight="1" ht="18.75">
+      <c r="A196" s="2">
         <v>22194</v>
       </c>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A197">
+    <row x14ac:dyDescent="0.25" r="197" customHeight="1" ht="18.75">
+      <c r="A197" s="2">
         <v>22195</v>
       </c>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A198">
+    <row x14ac:dyDescent="0.25" r="198" customHeight="1" ht="18.75">
+      <c r="A198" s="2">
         <v>22196</v>
       </c>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A199">
+    <row x14ac:dyDescent="0.25" r="199" customHeight="1" ht="18.75">
+      <c r="A199" s="2">
         <v>22197</v>
       </c>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A200">
+    <row x14ac:dyDescent="0.25" r="200" customHeight="1" ht="18.75">
+      <c r="A200" s="2">
         <v>22198</v>
       </c>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A201">
+    <row x14ac:dyDescent="0.25" r="201" customHeight="1" ht="18.75">
+      <c r="A201" s="2">
         <v>22199</v>
       </c>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A202">
+    <row x14ac:dyDescent="0.25" r="202" customHeight="1" ht="18.75">
+      <c r="A202" s="2">
         <v>22200</v>
       </c>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A203">
+    <row x14ac:dyDescent="0.25" r="203" customHeight="1" ht="18.75">
+      <c r="A203" s="2">
         <v>22201</v>
       </c>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A204">
+    <row x14ac:dyDescent="0.25" r="204" customHeight="1" ht="18.75">
+      <c r="A204" s="2">
         <v>22202</v>
       </c>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A205">
+    <row x14ac:dyDescent="0.25" r="205" customHeight="1" ht="18.75">
+      <c r="A205" s="2">
         <v>22203</v>
       </c>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A206">
+    <row x14ac:dyDescent="0.25" r="206" customHeight="1" ht="18.75">
+      <c r="A206" s="2">
         <v>22204</v>
       </c>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A207">
+    <row x14ac:dyDescent="0.25" r="207" customHeight="1" ht="18.75">
+      <c r="A207" s="2">
         <v>22205</v>
       </c>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A208">
+    <row x14ac:dyDescent="0.25" r="208" customHeight="1" ht="18.75">
+      <c r="A208" s="2">
         <v>22206</v>
       </c>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A209">
+    <row x14ac:dyDescent="0.25" r="209" customHeight="1" ht="18.75">
+      <c r="A209" s="2">
         <v>22207</v>
       </c>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A210">
+    <row x14ac:dyDescent="0.25" r="210" customHeight="1" ht="18.75">
+      <c r="A210" s="2">
         <v>22208</v>
       </c>
     </row>

--- a/exam hall try1/2ND YEAR.xlsx
+++ b/exam hall try1/2ND YEAR.xlsx
@@ -24,7 +24,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -35,6 +35,12 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -68,10 +74,10 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -393,112 +399,112 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="2">
         <v>22000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="2">
         <v>22001</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="2">
         <v>22002</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="2">
         <v>22003</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="2">
         <v>22004</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="2">
         <v>22005</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="2">
         <v>22006</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="2">
         <v>22007</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="2">
         <v>22008</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="2">
         <v>22009</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="2">
         <v>22010</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="2">
         <v>22011</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="2">
         <v>22012</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="2">
         <v>22013</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="2">
         <v>22014</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="2">
         <v>22015</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="2">
         <v>22016</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="2">
         <v>22017</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
       <c r="A20" s="2">
         <v>22018</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
       <c r="A21" s="2">
         <v>22019</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
       <c r="A22" s="2">
         <v>22020</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
       <c r="A23" s="2">
         <v>22021</v>
       </c>

--- a/exam hall try1/2ND YEAR.xlsx
+++ b/exam hall try1/2ND YEAR.xlsx
@@ -1,42 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Exam hall\MAJORPROJECT\exam hall try1\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F2AB0BB-0371-4298-A6BD-FA38EAD16F7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>URN</t>
+    <t>D2CSE_URN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -72,26 +71,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -102,10 +101,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -143,71 +142,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -235,7 +234,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -258,11 +257,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -271,13 +270,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -287,7 +286,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -296,7 +295,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -305,7 +304,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -313,10 +312,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -381,1068 +380,1020 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:A210"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="13.5546875" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
-      <c r="A2" s="2">
+    <row r="2" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
         <v>22000</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
-      <c r="A3" s="2">
+    <row r="3" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
         <v>22001</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
-      <c r="A4" s="2">
+    <row r="4" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
         <v>22002</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
-      <c r="A5" s="2">
+    <row r="5" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
         <v>22003</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
-      <c r="A6" s="2">
+    <row r="6" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
         <v>22004</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
-      <c r="A7" s="2">
+    <row r="7" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
         <v>22005</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
-      <c r="A8" s="2">
+    <row r="8" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
         <v>22006</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
-      <c r="A9" s="2">
+    <row r="9" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
         <v>22007</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
-      <c r="A10" s="2">
+    <row r="10" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
         <v>22008</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
-      <c r="A11" s="2">
+    <row r="11" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
         <v>22009</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
-      <c r="A12" s="2">
+    <row r="12" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
         <v>22010</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
-      <c r="A13" s="2">
+    <row r="13" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
         <v>22011</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
-      <c r="A14" s="2">
+    <row r="14" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
         <v>22012</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
-      <c r="A15" s="2">
+    <row r="15" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
         <v>22013</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
-      <c r="A16" s="2">
+    <row r="16" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
         <v>22014</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
-      <c r="A17" s="2">
+    <row r="17" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
         <v>22015</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
-      <c r="A18" s="2">
+    <row r="18" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
         <v>22016</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
-      <c r="A19" s="2">
+    <row r="19" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
         <v>22017</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
-      <c r="A20" s="2">
+    <row r="20" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
         <v>22018</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
-      <c r="A21" s="2">
+    <row r="21" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
         <v>22019</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
-      <c r="A22" s="2">
+    <row r="22" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
         <v>22020</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
-      <c r="A23" s="2">
+    <row r="23" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
         <v>22021</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
-      <c r="A24" s="2">
+    <row r="24" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
         <v>22022</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
-      <c r="A25" s="2">
+    <row r="25" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
         <v>22023</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
-      <c r="A26" s="2">
+    <row r="26" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
         <v>22024</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
-      <c r="A27" s="2">
+    <row r="27" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
         <v>22025</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
-      <c r="A28" s="2">
+    <row r="28" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
         <v>22026</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
-      <c r="A29" s="2">
+    <row r="29" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
         <v>22027</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
-      <c r="A30" s="2">
+    <row r="30" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
         <v>22028</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
-      <c r="A31" s="2">
+    <row r="31" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
         <v>22029</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
-      <c r="A32" s="2">
+    <row r="32" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
         <v>22030</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
-      <c r="A33" s="2">
+    <row r="33" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
         <v>22031</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
-      <c r="A34" s="2">
+    <row r="34" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
         <v>22032</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
-      <c r="A35" s="2">
+    <row r="35" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
         <v>22033</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
-      <c r="A36" s="2">
+    <row r="36" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
         <v>22034</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
-      <c r="A37" s="2">
+    <row r="37" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
         <v>22035</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
-      <c r="A38" s="2">
+    <row r="38" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
         <v>22036</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
-      <c r="A39" s="2">
+    <row r="39" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
         <v>22037</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
-      <c r="A40" s="2">
+    <row r="40" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
         <v>22038</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
-      <c r="A41" s="2">
+    <row r="41" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
         <v>22039</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
-      <c r="A42" s="2">
+    <row r="42" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
         <v>22040</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
-      <c r="A43" s="2">
+    <row r="43" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
         <v>22041</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
-      <c r="A44" s="2">
+    <row r="44" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
         <v>22042</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
-      <c r="A45" s="2">
+    <row r="45" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
         <v>22043</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
-      <c r="A46" s="2">
+    <row r="46" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="1">
         <v>22044</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
-      <c r="A47" s="2">
+    <row r="47" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="1">
         <v>22045</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
-      <c r="A48" s="2">
+    <row r="48" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="1">
         <v>22046</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
-      <c r="A49" s="2">
+    <row r="49" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="1">
         <v>22047</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
-      <c r="A50" s="2">
+    <row r="50" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="1">
         <v>22048</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
-      <c r="A51" s="2">
+    <row r="51" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="1">
         <v>22049</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
-      <c r="A52" s="2">
+    <row r="52" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="1">
         <v>22050</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
-      <c r="A53" s="2">
+    <row r="53" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="1">
         <v>22051</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
-      <c r="A54" s="2">
+    <row r="54" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="1">
         <v>22052</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
-      <c r="A55" s="2">
+    <row r="55" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="1">
         <v>22053</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
-      <c r="A56" s="2">
+    <row r="56" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="1">
         <v>22054</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
-      <c r="A57" s="2">
+    <row r="57" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="1">
         <v>22055</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
-      <c r="A58" s="2">
+    <row r="58" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="1">
         <v>22056</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75">
-      <c r="A59" s="2">
+    <row r="59" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="1">
         <v>22057</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75">
-      <c r="A60" s="2">
+    <row r="60" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="1">
         <v>22058</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75">
-      <c r="A61" s="2">
+    <row r="61" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="1">
         <v>22059</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75">
-      <c r="A62" s="2">
+    <row r="62" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="1">
         <v>22060</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75">
-      <c r="A63" s="2">
+    <row r="63" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="1">
         <v>22061</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75">
-      <c r="A64" s="2">
+    <row r="64" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="1">
         <v>22062</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75">
-      <c r="A65" s="2">
+    <row r="65" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="1">
         <v>22063</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75">
-      <c r="A66" s="2">
+    <row r="66" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="1">
         <v>22064</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75">
-      <c r="A67" s="2">
+    <row r="67" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="1">
         <v>22065</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75">
-      <c r="A68" s="2">
+    <row r="68" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="1">
         <v>22066</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75">
-      <c r="A69" s="2">
+    <row r="69" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="1">
         <v>22067</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75">
-      <c r="A70" s="2">
+    <row r="70" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="1">
         <v>22068</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75">
-      <c r="A71" s="2">
+    <row r="71" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="1">
         <v>22069</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75">
-      <c r="A72" s="2">
+    <row r="72" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="1">
         <v>22070</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75">
-      <c r="A73" s="2">
+    <row r="73" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="1">
         <v>22071</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75">
-      <c r="A74" s="2">
+    <row r="74" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="1">
         <v>22072</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75">
-      <c r="A75" s="2">
+    <row r="75" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="1">
         <v>22073</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18.75">
-      <c r="A76" s="2">
+    <row r="76" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="1">
         <v>22074</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75">
-      <c r="A77" s="2">
+    <row r="77" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="1">
         <v>22075</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75">
-      <c r="A78" s="2">
+    <row r="78" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="1">
         <v>22076</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18.75">
-      <c r="A79" s="2">
+    <row r="79" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="1">
         <v>22077</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18.75">
-      <c r="A80" s="2">
+    <row r="80" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="1">
         <v>22078</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18.75">
-      <c r="A81" s="2">
+    <row r="81" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="1">
         <v>22079</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18.75">
-      <c r="A82" s="2">
+    <row r="82" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="1">
         <v>22080</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18.75">
-      <c r="A83" s="2">
+    <row r="83" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="1">
         <v>22081</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18.75">
-      <c r="A84" s="2">
+    <row r="84" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="1">
         <v>22082</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18.75">
-      <c r="A85" s="2">
+    <row r="85" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="1">
         <v>22083</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="18.75">
-      <c r="A86" s="2">
+    <row r="86" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="1">
         <v>22084</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="18.75">
-      <c r="A87" s="2">
+    <row r="87" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="1">
         <v>22085</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="18.75">
-      <c r="A88" s="2">
+    <row r="88" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="1">
         <v>22086</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="18.75">
-      <c r="A89" s="2">
+    <row r="89" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="1">
         <v>22087</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="18.75">
-      <c r="A90" s="2">
+    <row r="90" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="1">
         <v>22088</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="18.75">
-      <c r="A91" s="2">
+    <row r="91" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="1">
         <v>22089</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="18.75">
-      <c r="A92" s="2">
+    <row r="92" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="1">
         <v>22090</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="18.75">
-      <c r="A93" s="2">
+    <row r="93" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="1">
         <v>22091</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="18.75">
-      <c r="A94" s="2">
+    <row r="94" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="1">
         <v>22092</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="18.75">
-      <c r="A95" s="2">
+    <row r="95" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="1">
         <v>22093</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="18.75">
-      <c r="A96" s="2">
+    <row r="96" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="1">
         <v>22094</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="18.75">
-      <c r="A97" s="2">
+    <row r="97" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="1">
         <v>22095</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="18.75">
-      <c r="A98" s="2">
+    <row r="98" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="1">
         <v>22096</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="18.75">
-      <c r="A99" s="2">
+    <row r="99" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="1">
         <v>22097</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="18.75">
-      <c r="A100" s="2">
+    <row r="100" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="1">
         <v>22098</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="18.75">
-      <c r="A101" s="2">
+    <row r="101" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="1">
         <v>22099</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="18.75">
-      <c r="A102" s="2">
+    <row r="102" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="1">
         <v>22100</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="18.75">
-      <c r="A103" s="2">
+    <row r="103" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="1">
         <v>22101</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="18.75">
-      <c r="A104" s="2">
+    <row r="104" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="1">
         <v>22102</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="18.75">
-      <c r="A105" s="2">
+    <row r="105" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="1">
         <v>22103</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="18.75">
-      <c r="A106" s="2">
+    <row r="106" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="1">
         <v>22104</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="18.75">
-      <c r="A107" s="2">
+    <row r="107" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="1">
         <v>22105</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="18.75">
-      <c r="A108" s="2">
+    <row r="108" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="1">
         <v>22106</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="18.75">
-      <c r="A109" s="2">
+    <row r="109" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="1">
         <v>22107</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="18.75">
-      <c r="A110" s="2">
+    <row r="110" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="1">
         <v>22108</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="18.75">
-      <c r="A111" s="2">
+    <row r="111" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="1">
         <v>22109</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="18.75">
-      <c r="A112" s="2">
+    <row r="112" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="1">
         <v>22110</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="18.75">
-      <c r="A113" s="2">
+    <row r="113" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="1">
         <v>22111</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="18.75">
-      <c r="A114" s="2">
+    <row r="114" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="1">
         <v>22112</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="18.75">
-      <c r="A115" s="2">
+    <row r="115" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="1">
         <v>22113</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="18.75">
-      <c r="A116" s="2">
+    <row r="116" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="1">
         <v>22114</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="18.75">
-      <c r="A117" s="2">
+    <row r="117" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="1">
         <v>22115</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="18.75">
-      <c r="A118" s="2">
+    <row r="118" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="1">
         <v>22116</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="18.75">
-      <c r="A119" s="2">
+    <row r="119" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="1">
         <v>22117</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="18.75">
-      <c r="A120" s="2">
+    <row r="120" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="1">
         <v>22118</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="18.75">
-      <c r="A121" s="2">
+    <row r="121" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="1">
         <v>22119</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="18.75">
-      <c r="A122" s="2">
+    <row r="122" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="1">
         <v>22120</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="18.75">
-      <c r="A123" s="2">
+    <row r="123" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="1">
         <v>22121</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="18.75">
-      <c r="A124" s="2">
+    <row r="124" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="1">
         <v>22122</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="18.75">
-      <c r="A125" s="2">
+    <row r="125" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="1">
         <v>22123</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="18.75">
-      <c r="A126" s="2">
+    <row r="126" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="1">
         <v>22124</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="18.75">
-      <c r="A127" s="2">
+    <row r="127" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="1">
         <v>22125</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="18.75">
-      <c r="A128" s="2">
+    <row r="128" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="1">
         <v>22126</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="18.75">
-      <c r="A129" s="2">
+    <row r="129" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="1">
         <v>22127</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="18.75">
-      <c r="A130" s="2">
+    <row r="130" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="1">
         <v>22128</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="18.75">
-      <c r="A131" s="2">
+    <row r="131" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="1">
         <v>22129</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="18.75">
-      <c r="A132" s="2">
+    <row r="132" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="1">
         <v>22130</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="18.75">
-      <c r="A133" s="2">
+    <row r="133" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="1">
         <v>22131</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="18.75">
-      <c r="A134" s="2">
+    <row r="134" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="1">
         <v>22132</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="18.75">
-      <c r="A135" s="2">
+    <row r="135" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A135" s="1">
         <v>22133</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="18.75">
-      <c r="A136" s="2">
+    <row r="136" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A136" s="1">
         <v>22134</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="18.75">
-      <c r="A137" s="2">
+    <row r="137" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A137" s="1">
         <v>22135</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="18.75">
-      <c r="A138" s="2">
+    <row r="138" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A138" s="1">
         <v>22136</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="18.75">
-      <c r="A139" s="2">
+    <row r="139" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A139" s="1">
         <v>22137</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="18.75">
-      <c r="A140" s="2">
+    <row r="140" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A140" s="1">
         <v>22138</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="18.75">
-      <c r="A141" s="2">
+    <row r="141" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A141" s="1">
         <v>22139</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="18.75">
-      <c r="A142" s="2">
+    <row r="142" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A142" s="1">
         <v>22140</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="18.75">
-      <c r="A143" s="2">
+    <row r="143" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A143" s="1">
         <v>22141</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="18.75">
-      <c r="A144" s="2">
+    <row r="144" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A144" s="1">
         <v>22142</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="18.75">
-      <c r="A145" s="2">
+    <row r="145" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A145" s="1">
         <v>22143</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="18.75">
-      <c r="A146" s="2">
+    <row r="146" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A146" s="1">
         <v>22144</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="18.75">
-      <c r="A147" s="2">
+    <row r="147" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A147" s="1">
         <v>22145</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="18.75">
-      <c r="A148" s="2">
+    <row r="148" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A148" s="1">
         <v>22146</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="18.75">
-      <c r="A149" s="2">
+    <row r="149" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A149" s="1">
         <v>22147</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="18.75">
-      <c r="A150" s="2">
+    <row r="150" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A150" s="1">
         <v>22148</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="18.75">
-      <c r="A151" s="2">
+    <row r="151" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A151" s="1">
         <v>22149</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="18.75">
-      <c r="A152" s="2">
+    <row r="152" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A152" s="1">
         <v>22150</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="18.75">
-      <c r="A153" s="2">
+    <row r="153" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A153" s="1">
         <v>22151</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="154" customHeight="1" ht="18.75">
-      <c r="A154" s="2">
+    <row r="154" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A154" s="1">
         <v>22152</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="155" customHeight="1" ht="18.75">
-      <c r="A155" s="2">
+    <row r="155" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A155" s="1">
         <v>22153</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="156" customHeight="1" ht="18.75">
-      <c r="A156" s="2">
+    <row r="156" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A156" s="1">
         <v>22154</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="157" customHeight="1" ht="18.75">
-      <c r="A157" s="2">
+    <row r="157" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A157" s="1">
         <v>22155</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="158" customHeight="1" ht="18.75">
-      <c r="A158" s="2">
+    <row r="158" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A158" s="1">
         <v>22156</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="159" customHeight="1" ht="18.75">
-      <c r="A159" s="2">
+    <row r="159" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A159" s="1">
         <v>22157</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="160" customHeight="1" ht="18.75">
-      <c r="A160" s="2">
+    <row r="160" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A160" s="1">
         <v>22158</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="161" customHeight="1" ht="18.75">
-      <c r="A161" s="2">
+    <row r="161" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A161" s="1">
         <v>22159</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="162" customHeight="1" ht="18.75">
-      <c r="A162" s="2">
+    <row r="162" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A162" s="1">
         <v>22160</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="163" customHeight="1" ht="18.75">
-      <c r="A163" s="2">
+    <row r="163" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A163" s="1">
         <v>22161</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="164" customHeight="1" ht="18.75">
-      <c r="A164" s="2">
+    <row r="164" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A164" s="1">
         <v>22162</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="165" customHeight="1" ht="18.75">
-      <c r="A165" s="2">
+    <row r="165" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A165" s="1">
         <v>22163</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="166" customHeight="1" ht="18.75">
-      <c r="A166" s="2">
+    <row r="166" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A166" s="1">
         <v>22164</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="167" customHeight="1" ht="18.75">
-      <c r="A167" s="2">
+    <row r="167" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A167" s="1">
         <v>22165</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="168" customHeight="1" ht="18.75">
-      <c r="A168" s="2">
+    <row r="168" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A168" s="1">
         <v>22166</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="169" customHeight="1" ht="18.75">
-      <c r="A169" s="2">
+    <row r="169" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A169" s="1">
         <v>22167</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="170" customHeight="1" ht="18.75">
-      <c r="A170" s="2">
+    <row r="170" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A170" s="1">
         <v>22168</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="171" customHeight="1" ht="18.75">
-      <c r="A171" s="2">
+    <row r="171" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A171" s="1">
         <v>22169</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="172" customHeight="1" ht="18.75">
-      <c r="A172" s="2">
+    <row r="172" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A172" s="1">
         <v>22170</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="173" customHeight="1" ht="18.75">
-      <c r="A173" s="2">
+    <row r="173" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A173" s="1">
         <v>22171</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="174" customHeight="1" ht="18.75">
-      <c r="A174" s="2">
+    <row r="174" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A174" s="1">
         <v>22172</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="175" customHeight="1" ht="18.75">
-      <c r="A175" s="2">
+    <row r="175" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A175" s="1">
         <v>22173</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="176" customHeight="1" ht="18.75">
-      <c r="A176" s="2">
+    <row r="176" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A176" s="1">
         <v>22174</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="177" customHeight="1" ht="18.75">
-      <c r="A177" s="2">
+    <row r="177" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A177" s="1">
         <v>22175</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="178" customHeight="1" ht="18.75">
-      <c r="A178" s="2">
+    <row r="178" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A178" s="1">
         <v>22176</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="179" customHeight="1" ht="18.75">
-      <c r="A179" s="2">
+    <row r="179" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A179" s="1">
         <v>22177</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="180" customHeight="1" ht="18.75">
-      <c r="A180" s="2">
+    <row r="180" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A180" s="1">
         <v>22178</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="181" customHeight="1" ht="18.75">
-      <c r="A181" s="2">
+    <row r="181" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A181" s="1">
         <v>22179</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="182" customHeight="1" ht="18.75">
-      <c r="A182" s="2">
+    <row r="182" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A182" s="1">
         <v>22180</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="183" customHeight="1" ht="18.75">
-      <c r="A183" s="2">
+    <row r="183" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A183" s="1">
         <v>22181</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="184" customHeight="1" ht="18.75">
-      <c r="A184" s="2">
+    <row r="184" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A184" s="1">
         <v>22182</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="185" customHeight="1" ht="18.75">
-      <c r="A185" s="2">
+    <row r="185" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A185" s="1">
         <v>22183</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="186" customHeight="1" ht="18.75">
-      <c r="A186" s="2">
-        <v>22184</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="187" customHeight="1" ht="18.75">
-      <c r="A187" s="2">
-        <v>22185</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="188" customHeight="1" ht="18.75">
-      <c r="A188" s="2">
-        <v>22186</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="189" customHeight="1" ht="18.75">
-      <c r="A189" s="2">
-        <v>22187</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="190" customHeight="1" ht="18.75">
-      <c r="A190" s="2">
-        <v>22188</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="191" customHeight="1" ht="18.75">
-      <c r="A191" s="2">
-        <v>22189</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="192" customHeight="1" ht="18.75">
-      <c r="A192" s="2">
-        <v>22190</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="193" customHeight="1" ht="18.75">
-      <c r="A193" s="2">
-        <v>22191</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="194" customHeight="1" ht="18.75">
-      <c r="A194" s="2">
-        <v>22192</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="195" customHeight="1" ht="18.75">
-      <c r="A195" s="2">
-        <v>22193</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="196" customHeight="1" ht="18.75">
-      <c r="A196" s="2">
-        <v>22194</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="197" customHeight="1" ht="18.75">
-      <c r="A197" s="2">
-        <v>22195</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="198" customHeight="1" ht="18.75">
-      <c r="A198" s="2">
-        <v>22196</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="199" customHeight="1" ht="18.75">
-      <c r="A199" s="2">
-        <v>22197</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="200" customHeight="1" ht="18.75">
-      <c r="A200" s="2">
-        <v>22198</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="201" customHeight="1" ht="18.75">
-      <c r="A201" s="2">
-        <v>22199</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="202" customHeight="1" ht="18.75">
-      <c r="A202" s="2">
-        <v>22200</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="203" customHeight="1" ht="18.75">
-      <c r="A203" s="2">
-        <v>22201</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="204" customHeight="1" ht="18.75">
-      <c r="A204" s="2">
-        <v>22202</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="205" customHeight="1" ht="18.75">
-      <c r="A205" s="2">
-        <v>22203</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="206" customHeight="1" ht="18.75">
-      <c r="A206" s="2">
-        <v>22204</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="207" customHeight="1" ht="18.75">
-      <c r="A207" s="2">
-        <v>22205</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="208" customHeight="1" ht="18.75">
-      <c r="A208" s="2">
-        <v>22206</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="209" customHeight="1" ht="18.75">
-      <c r="A209" s="2">
-        <v>22207</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="210" customHeight="1" ht="18.75">
-      <c r="A210" s="2">
-        <v>22208</v>
-      </c>
+    <row r="186" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A186" s="1"/>
+    </row>
+    <row r="187" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A187" s="1"/>
+    </row>
+    <row r="188" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A188" s="1"/>
+    </row>
+    <row r="189" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A189" s="1"/>
+    </row>
+    <row r="190" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A190" s="1"/>
+    </row>
+    <row r="191" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A191" s="1"/>
+    </row>
+    <row r="192" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A192" s="1"/>
+    </row>
+    <row r="193" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A193" s="1"/>
+    </row>
+    <row r="194" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A194" s="1"/>
+    </row>
+    <row r="195" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A195" s="1"/>
+    </row>
+    <row r="196" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A196" s="1"/>
+    </row>
+    <row r="197" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A197" s="1"/>
+    </row>
+    <row r="198" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A198" s="1"/>
+    </row>
+    <row r="199" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A199" s="1"/>
+    </row>
+    <row r="200" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A200" s="1"/>
+    </row>
+    <row r="201" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A201" s="1"/>
+    </row>
+    <row r="202" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A202" s="1"/>
+    </row>
+    <row r="203" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A203" s="1"/>
+    </row>
+    <row r="204" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A204" s="1"/>
+    </row>
+    <row r="205" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A205" s="1"/>
+    </row>
+    <row r="206" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A206" s="1"/>
+    </row>
+    <row r="207" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A207" s="1"/>
+    </row>
+    <row r="208" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A208" s="1"/>
+    </row>
+    <row r="209" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A209" s="1"/>
+    </row>
+    <row r="210" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A210" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
